--- a/data/Carrizo_shrub_RDM_survey.xlsx
+++ b/data/Carrizo_shrub_RDM_survey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13460"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="25040" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="19">
   <si>
     <t>x</t>
   </si>
@@ -85,6 +85,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -92,6 +95,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -108,11 +117,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,16 +138,19 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -456,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,27 +471,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.375" customWidth="1"/>
-    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -547,20 +555,19 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>3.85</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>2.8</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>1.38</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>35.119450000000001</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>-119.62962</v>
       </c>
       <c r="K2" s="1">
@@ -592,20 +599,19 @@
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>3.05</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>1.55</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>35.11927</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>-119.62956</v>
       </c>
       <c r="K3" s="1">
@@ -637,20 +643,19 @@
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>3.6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>2.35</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>1.47</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>35.119039999999998</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>-119.62954999999999</v>
       </c>
       <c r="K4" s="1">
@@ -682,20 +687,19 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>3.14</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>2.59</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>1.21</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>35.118940000000002</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>-119.62973</v>
       </c>
       <c r="K5" s="1">
@@ -727,20 +731,19 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>2.35</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>1.9</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>1.38</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>35.118600000000001</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>-119.62962</v>
       </c>
       <c r="K6" s="1">
@@ -772,20 +775,19 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>3.24</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>3.15</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>1.52</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>35.118340000000003</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>-119.62951</v>
       </c>
       <c r="K7" s="1">
@@ -817,20 +819,19 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>3.98</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>3.16</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>1.67</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>35.118209999999998</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>-119.62965</v>
       </c>
       <c r="K8" s="1">
@@ -862,20 +863,19 @@
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>4.33</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>4.07</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>1.85</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>35.118029999999997</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <v>-119.62971</v>
       </c>
       <c r="K9" s="1">
@@ -907,20 +907,19 @@
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>3.74</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>3.29</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>1.92</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>35.118000000000002</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <v>-119.62921</v>
       </c>
       <c r="K10" s="1">
@@ -952,20 +951,19 @@
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>2.54</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>1.91</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>1.78</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>35.118009999999998</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <v>-119.62868</v>
       </c>
       <c r="K11" s="1">
@@ -997,20 +995,19 @@
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>3.6</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>3.52</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>1.8</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>35.117800000000003</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="3">
         <v>-119.62860999999999</v>
       </c>
       <c r="K12" s="1">
@@ -1042,20 +1039,19 @@
       <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>2.83</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>2.71</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>1.62</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>35.117669999999997</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <v>-119.62823</v>
       </c>
       <c r="K13" s="1">
@@ -1087,20 +1083,19 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>3.12</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>1.57</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>35.117370000000001</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <v>-119.62839</v>
       </c>
       <c r="K14" s="1">
@@ -1132,20 +1127,19 @@
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>3.39</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>1.64</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>35.117339999999999</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <v>-119.62857</v>
       </c>
       <c r="K15" s="1">
@@ -1177,20 +1171,19 @@
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>1.2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0.97</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>0.83</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>35.117319999999999</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="3">
         <v>-119.62863</v>
       </c>
       <c r="K16" s="1">
@@ -1222,20 +1215,19 @@
       <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>1.32</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>1.35</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>1.21</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>35.117319999999999</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="3">
         <v>-119.62867</v>
       </c>
       <c r="K17" s="1">
@@ -1267,20 +1259,19 @@
       <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>2.35</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>1.7</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>1.27</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1">
+      <c r="I18" s="3">
         <v>35.117289999999997</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="3">
         <v>-119.62882999999999</v>
       </c>
       <c r="K18" s="1">
@@ -1312,20 +1303,19 @@
       <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>3.19</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>3.05</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>1.85</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1">
+      <c r="I19" s="3">
         <v>35.117280000000001</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="3">
         <v>-119.62885</v>
       </c>
       <c r="K19" s="1">
@@ -1357,20 +1347,19 @@
       <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>3.11</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>2.58</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>1.49</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1">
+      <c r="I20" s="3">
         <v>35.117179999999998</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="3">
         <v>-119.62876</v>
       </c>
       <c r="K20" s="1">
@@ -1402,20 +1391,19 @@
       <c r="D21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>3.07</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>2.8</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>1.47</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1">
+      <c r="I21" s="3">
         <v>35.116999999999997</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="3">
         <v>-119.62833000000001</v>
       </c>
       <c r="K21" s="1">
@@ -1447,20 +1435,19 @@
       <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>2.38</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>1.58</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1">
+      <c r="I22" s="3">
         <v>35.116669999999999</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="3">
         <v>-119.62894</v>
       </c>
       <c r="K22" s="1">
@@ -1492,20 +1479,19 @@
       <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>1.41</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>1.3</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>1.36</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1">
+      <c r="I23" s="3">
         <v>35.116489999999999</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="3">
         <v>-119.62907</v>
       </c>
       <c r="K23" s="1">
@@ -1537,20 +1523,19 @@
       <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>1.64</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>1.6</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>1.07</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1">
+      <c r="I24" s="3">
         <v>35.116779999999999</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="3">
         <v>-119.62945999999999</v>
       </c>
       <c r="K24" s="1">
@@ -1582,20 +1567,19 @@
       <c r="D25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>2.1</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>1.45</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <v>35.116759999999999</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="3">
         <v>-119.62948</v>
       </c>
       <c r="K25" s="1">
@@ -1627,20 +1611,19 @@
       <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>2.27</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>2.4</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1">
+      <c r="I26" s="3">
         <v>35.116790000000002</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="3">
         <v>-119.62994</v>
       </c>
       <c r="K26" s="1">
@@ -1672,20 +1655,19 @@
       <c r="D27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>1.5</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>1.39</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>1.35</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
         <v>35.117080000000001</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="3">
         <v>-119.63082</v>
       </c>
       <c r="K27" s="1">
@@ -1701,6 +1683,5364 @@
         <v>-119.63084000000001</v>
       </c>
       <c r="O27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>10</v>
+      </c>
+      <c r="I28" s="3">
+        <v>35.11938</v>
+      </c>
+      <c r="J28" s="3">
+        <v>-119.62978</v>
+      </c>
+      <c r="K28" s="1">
+        <v>112</v>
+      </c>
+      <c r="L28" s="1">
+        <v>16</v>
+      </c>
+      <c r="M28" s="1">
+        <v>35.119419999999998</v>
+      </c>
+      <c r="N28" s="1">
+        <v>-119.62978</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H29" s="4">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>35.119450000000001</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-119.62984</v>
+      </c>
+      <c r="K29" s="1">
+        <v>53</v>
+      </c>
+      <c r="L29" s="1">
+        <v>32</v>
+      </c>
+      <c r="M29" s="1">
+        <v>35.119459999999997</v>
+      </c>
+      <c r="N29" s="1">
+        <v>-119.62984</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H30" s="4">
+        <v>6</v>
+      </c>
+      <c r="I30" s="3">
+        <v>35.11947</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-119.63</v>
+      </c>
+      <c r="K30" s="1">
+        <v>96</v>
+      </c>
+      <c r="L30" s="1">
+        <v>14</v>
+      </c>
+      <c r="M30" s="1">
+        <v>35.119489999999999</v>
+      </c>
+      <c r="N30" s="1">
+        <v>-119.62999000000001</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="H31" s="4">
+        <v>10</v>
+      </c>
+      <c r="I31" s="3">
+        <v>35.119419999999998</v>
+      </c>
+      <c r="J31" s="3">
+        <v>-119.6301</v>
+      </c>
+      <c r="K31" s="1">
+        <v>87</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>35.119430000000001</v>
+      </c>
+      <c r="N31" s="1">
+        <v>-119.63008000000001</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="H32" s="4">
+        <v>9</v>
+      </c>
+      <c r="I32" s="3">
+        <v>35.119549999999997</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-119.63012999999999</v>
+      </c>
+      <c r="K32" s="1">
+        <v>20</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>35.119549999999997</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-119.63011</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="H33" s="4">
+        <v>10</v>
+      </c>
+      <c r="I33" s="3">
+        <v>35.119669999999999</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-119.62997</v>
+      </c>
+      <c r="K33" s="1">
+        <v>8</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>35.119660000000003</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-119.62997</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="H34" s="4">
+        <v>7</v>
+      </c>
+      <c r="I34" s="3">
+        <v>35.119750000000003</v>
+      </c>
+      <c r="J34" s="3">
+        <v>-119.62988</v>
+      </c>
+      <c r="K34" s="1">
+        <v>46</v>
+      </c>
+      <c r="L34" s="1">
+        <v>8</v>
+      </c>
+      <c r="M34" s="3">
+        <v>35.119759999999999</v>
+      </c>
+      <c r="N34" s="3">
+        <v>-119.62987</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H35" s="4">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
+        <v>35.119590000000002</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-119.62994999999999</v>
+      </c>
+      <c r="K35" s="1">
+        <v>125</v>
+      </c>
+      <c r="L35" s="1">
+        <v>19</v>
+      </c>
+      <c r="M35" s="3">
+        <v>35.119590000000002</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-119.62994999999999</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H36" s="4">
+        <v>10</v>
+      </c>
+      <c r="I36" s="3">
+        <v>35.119250000000001</v>
+      </c>
+      <c r="J36" s="3">
+        <v>-119.63021000000001</v>
+      </c>
+      <c r="K36" s="1">
+        <v>101</v>
+      </c>
+      <c r="L36" s="1">
+        <v>15</v>
+      </c>
+      <c r="M36" s="3">
+        <v>35.119259999999997</v>
+      </c>
+      <c r="N36" s="3">
+        <v>-119.6302</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H37" s="4">
+        <v>9</v>
+      </c>
+      <c r="I37" s="3">
+        <v>35.119059999999998</v>
+      </c>
+      <c r="J37" s="3">
+        <v>-119.63036</v>
+      </c>
+      <c r="K37" s="1">
+        <v>114</v>
+      </c>
+      <c r="L37" s="1">
+        <v>26</v>
+      </c>
+      <c r="M37" s="3">
+        <v>35.119059999999998</v>
+      </c>
+      <c r="N37" s="3">
+        <v>-119.63033</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H38" s="4">
+        <v>10</v>
+      </c>
+      <c r="I38" s="3">
+        <v>35.118980000000001</v>
+      </c>
+      <c r="J38" s="3">
+        <v>-119.63035000000001</v>
+      </c>
+      <c r="K38" s="1">
+        <v>85</v>
+      </c>
+      <c r="L38" s="1">
+        <v>29</v>
+      </c>
+      <c r="M38" s="3">
+        <v>35.119</v>
+      </c>
+      <c r="N38" s="3">
+        <v>-119.63033</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H39" s="4">
+        <v>9</v>
+      </c>
+      <c r="I39" s="3">
+        <v>35.118740000000003</v>
+      </c>
+      <c r="J39" s="3">
+        <v>-119.63055</v>
+      </c>
+      <c r="K39" s="1">
+        <v>67</v>
+      </c>
+      <c r="L39" s="1">
+        <v>25</v>
+      </c>
+      <c r="M39" s="3">
+        <v>35.118760000000002</v>
+      </c>
+      <c r="N39" s="3">
+        <v>-119.63056</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>6</v>
+      </c>
+      <c r="I40" s="3">
+        <v>35.118510000000001</v>
+      </c>
+      <c r="J40" s="3">
+        <v>-119.63042</v>
+      </c>
+      <c r="K40" s="1">
+        <v>171</v>
+      </c>
+      <c r="L40" s="1">
+        <v>6</v>
+      </c>
+      <c r="M40" s="3">
+        <v>35.118540000000003</v>
+      </c>
+      <c r="N40" s="3">
+        <v>-119.63042</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H41" s="4">
+        <v>9</v>
+      </c>
+      <c r="I41" s="3">
+        <v>35.118540000000003</v>
+      </c>
+      <c r="J41" s="3">
+        <v>-119.63069</v>
+      </c>
+      <c r="K41" s="1">
+        <v>24</v>
+      </c>
+      <c r="L41" s="1">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
+        <v>35.118549999999999</v>
+      </c>
+      <c r="N41" s="3">
+        <v>-119.63066999999999</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>6</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H42" s="4">
+        <v>10</v>
+      </c>
+      <c r="I42" s="3">
+        <v>35.118470000000002</v>
+      </c>
+      <c r="J42" s="3">
+        <v>-119.63085</v>
+      </c>
+      <c r="K42" s="1">
+        <v>76</v>
+      </c>
+      <c r="L42" s="1">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3">
+        <v>35.118499999999997</v>
+      </c>
+      <c r="N42" s="3">
+        <v>-119.63084000000001</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H43" s="4">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>35.118389999999998</v>
+      </c>
+      <c r="J43" s="3">
+        <v>-119.63079</v>
+      </c>
+      <c r="K43" s="1">
+        <v>15</v>
+      </c>
+      <c r="L43" s="1">
+        <v>31</v>
+      </c>
+      <c r="M43" s="3">
+        <v>35.118400000000001</v>
+      </c>
+      <c r="N43" s="3">
+        <v>-119.63077</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="H44" s="4">
+        <v>9</v>
+      </c>
+      <c r="I44" s="3">
+        <v>35.118130000000001</v>
+      </c>
+      <c r="J44" s="3">
+        <v>-119.63108</v>
+      </c>
+      <c r="K44" s="1">
+        <v>49</v>
+      </c>
+      <c r="L44" s="1">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
+        <v>35.11815</v>
+      </c>
+      <c r="N44" s="3">
+        <v>-119.63109</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H45" s="4">
+        <v>10</v>
+      </c>
+      <c r="I45" s="3">
+        <v>35.117890000000003</v>
+      </c>
+      <c r="J45" s="3">
+        <v>-119.63146</v>
+      </c>
+      <c r="K45" s="1">
+        <v>185</v>
+      </c>
+      <c r="L45" s="1">
+        <v>25</v>
+      </c>
+      <c r="M45" s="3">
+        <v>35.117870000000003</v>
+      </c>
+      <c r="N45" s="3">
+        <v>-119.63145</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="H46" s="4">
+        <v>10</v>
+      </c>
+      <c r="I46" s="3">
+        <v>35.117730000000002</v>
+      </c>
+      <c r="J46" s="3">
+        <v>-119.63169000000001</v>
+      </c>
+      <c r="K46" s="1">
+        <v>113</v>
+      </c>
+      <c r="L46" s="1">
+        <v>29</v>
+      </c>
+      <c r="M46" s="3">
+        <v>35.117739999999998</v>
+      </c>
+      <c r="N46" s="3">
+        <v>-119.63169000000001</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H47" s="4">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
+        <v>35.117130000000003</v>
+      </c>
+      <c r="J47" s="3">
+        <v>-119.63182999999999</v>
+      </c>
+      <c r="K47" s="1">
+        <v>87</v>
+      </c>
+      <c r="L47" s="1">
+        <v>21</v>
+      </c>
+      <c r="M47" s="3">
+        <v>35.117139999999999</v>
+      </c>
+      <c r="N47" s="3">
+        <v>-119.63182</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H48" s="4">
+        <v>7</v>
+      </c>
+      <c r="I48" s="3">
+        <v>35.117010000000001</v>
+      </c>
+      <c r="J48" s="3">
+        <v>-119.63197</v>
+      </c>
+      <c r="K48" s="1">
+        <v>119</v>
+      </c>
+      <c r="L48" s="1">
+        <v>26</v>
+      </c>
+      <c r="M48" s="3">
+        <v>35.117019999999997</v>
+      </c>
+      <c r="N48" s="3">
+        <v>-119.63197</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H49" s="4">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3">
+        <v>35.116849999999999</v>
+      </c>
+      <c r="J49" s="3">
+        <v>-119.63254999999999</v>
+      </c>
+      <c r="K49" s="1">
+        <v>69</v>
+      </c>
+      <c r="L49" s="1">
+        <v>29</v>
+      </c>
+      <c r="M49" s="3">
+        <v>35.116860000000003</v>
+      </c>
+      <c r="N49" s="3">
+        <v>-119.63254999999999</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H50" s="4">
+        <v>8</v>
+      </c>
+      <c r="I50" s="3">
+        <v>35.117350000000002</v>
+      </c>
+      <c r="J50" s="3">
+        <v>-119.63275</v>
+      </c>
+      <c r="K50" s="1">
+        <v>43</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3">
+        <v>35.117370000000001</v>
+      </c>
+      <c r="N50" s="3">
+        <v>-119.63274</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F51" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>7</v>
+      </c>
+      <c r="I51" s="3">
+        <v>35.117489999999997</v>
+      </c>
+      <c r="J51" s="3">
+        <v>-119.63303999999999</v>
+      </c>
+      <c r="K51" s="1">
+        <v>98</v>
+      </c>
+      <c r="L51" s="1">
+        <v>91</v>
+      </c>
+      <c r="M51" s="3">
+        <v>35.117519999999999</v>
+      </c>
+      <c r="N51" s="3">
+        <v>-119.63303000000001</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H52" s="4">
+        <v>6</v>
+      </c>
+      <c r="I52" s="3">
+        <v>35.117649999999998</v>
+      </c>
+      <c r="J52" s="3">
+        <v>-119.63326000000001</v>
+      </c>
+      <c r="K52" s="1">
+        <v>64</v>
+      </c>
+      <c r="L52" s="1">
+        <v>13</v>
+      </c>
+      <c r="M52" s="3">
+        <v>35.117660000000001</v>
+      </c>
+      <c r="N52" s="3">
+        <v>-119.63325</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H53" s="4">
+        <v>9</v>
+      </c>
+      <c r="I53" s="3">
+        <v>35.117570000000001</v>
+      </c>
+      <c r="J53" s="3">
+        <v>-119.63346</v>
+      </c>
+      <c r="K53" s="1">
+        <v>5</v>
+      </c>
+      <c r="L53" s="1">
+        <v>17</v>
+      </c>
+      <c r="M53" s="3">
+        <v>35.117570000000001</v>
+      </c>
+      <c r="N53" s="3">
+        <v>-119.63346</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="F54" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="H54" s="4">
+        <v>9</v>
+      </c>
+      <c r="I54" s="3">
+        <v>35.117719999999998</v>
+      </c>
+      <c r="J54" s="3">
+        <v>-119.63377</v>
+      </c>
+      <c r="K54" s="1">
+        <v>101</v>
+      </c>
+      <c r="L54" s="1">
+        <v>10</v>
+      </c>
+      <c r="M54" s="3">
+        <v>35.117739999999998</v>
+      </c>
+      <c r="N54" s="3">
+        <v>-119.63374</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B55" s="1">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H55" s="4">
+        <v>9</v>
+      </c>
+      <c r="I55" s="3">
+        <v>35.117710000000002</v>
+      </c>
+      <c r="J55" s="3">
+        <v>-119.63388999999999</v>
+      </c>
+      <c r="K55" s="1">
+        <v>68</v>
+      </c>
+      <c r="L55" s="1">
+        <v>3</v>
+      </c>
+      <c r="M55" s="3">
+        <v>35.117719999999998</v>
+      </c>
+      <c r="N55" s="3">
+        <v>-119.63387</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H56" s="4">
+        <v>10</v>
+      </c>
+      <c r="I56" s="3">
+        <v>35.117550000000001</v>
+      </c>
+      <c r="J56" s="3">
+        <v>-119.63396</v>
+      </c>
+      <c r="K56" s="1">
+        <v>11</v>
+      </c>
+      <c r="L56" s="1">
+        <v>16</v>
+      </c>
+      <c r="M56" s="3">
+        <v>35.117559999999997</v>
+      </c>
+      <c r="N56" s="3">
+        <v>-119.63394</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H57" s="4">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3">
+        <v>35.117080000000001</v>
+      </c>
+      <c r="J57" s="3">
+        <v>-119.63419</v>
+      </c>
+      <c r="K57" s="1">
+        <v>113</v>
+      </c>
+      <c r="L57" s="1">
+        <v>22</v>
+      </c>
+      <c r="M57" s="3">
+        <v>35.117100000000001</v>
+      </c>
+      <c r="N57" s="3">
+        <v>-119.63418</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B58" s="1">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="F58" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H58" s="4">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
+        <v>35.117159999999998</v>
+      </c>
+      <c r="J58" s="3">
+        <v>-119.6345</v>
+      </c>
+      <c r="K58" s="1">
+        <v>104</v>
+      </c>
+      <c r="L58" s="1">
+        <v>16</v>
+      </c>
+      <c r="M58" s="3">
+        <v>35.117190000000001</v>
+      </c>
+      <c r="N58" s="3">
+        <v>-119.6345</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B59" s="1">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="F59" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="H59" s="4">
+        <v>9</v>
+      </c>
+      <c r="I59" s="3">
+        <v>35.11692</v>
+      </c>
+      <c r="J59" s="3">
+        <v>-119.63464</v>
+      </c>
+      <c r="K59" s="1">
+        <v>140</v>
+      </c>
+      <c r="L59" s="1">
+        <v>15</v>
+      </c>
+      <c r="M59" s="3">
+        <v>35.116950000000003</v>
+      </c>
+      <c r="N59" s="3">
+        <v>-119.63464</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F60" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H60" s="4">
+        <v>9</v>
+      </c>
+      <c r="I60" s="3">
+        <v>35.116810000000001</v>
+      </c>
+      <c r="J60" s="3">
+        <v>-119.63466</v>
+      </c>
+      <c r="K60" s="1">
+        <v>72</v>
+      </c>
+      <c r="L60" s="1">
+        <v>13</v>
+      </c>
+      <c r="M60" s="3">
+        <v>35.116810000000001</v>
+      </c>
+      <c r="N60" s="3">
+        <v>-119.63464</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="F61" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H61" s="4">
+        <v>7</v>
+      </c>
+      <c r="I61" s="3">
+        <v>35.116619999999998</v>
+      </c>
+      <c r="J61" s="3">
+        <v>-119.63455999999999</v>
+      </c>
+      <c r="K61" s="1">
+        <v>17</v>
+      </c>
+      <c r="L61" s="1">
+        <v>11</v>
+      </c>
+      <c r="M61" s="3">
+        <v>35.116619999999998</v>
+      </c>
+      <c r="N61" s="3">
+        <v>-119.63455</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="H62" s="4">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>35.116509999999998</v>
+      </c>
+      <c r="J62" s="3">
+        <v>-119.63511</v>
+      </c>
+      <c r="K62" s="1">
+        <v>65</v>
+      </c>
+      <c r="L62" s="1">
+        <v>2</v>
+      </c>
+      <c r="M62" s="3">
+        <v>35.116520000000001</v>
+      </c>
+      <c r="N62" s="3">
+        <v>-119.63509000000001</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B63" s="1">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="F63" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H63" s="4">
+        <v>9</v>
+      </c>
+      <c r="I63" s="3">
+        <v>35.116340000000001</v>
+      </c>
+      <c r="J63" s="3">
+        <v>-119.6353</v>
+      </c>
+      <c r="K63" s="1">
+        <v>64</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="3">
+        <v>35.116340000000001</v>
+      </c>
+      <c r="N63" s="3">
+        <v>-119.63527999999999</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B64" s="1">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H64" s="4">
+        <v>8</v>
+      </c>
+      <c r="I64" s="3">
+        <v>35.115760000000002</v>
+      </c>
+      <c r="J64" s="3">
+        <v>-119.6348</v>
+      </c>
+      <c r="K64" s="1">
+        <v>165</v>
+      </c>
+      <c r="L64" s="1">
+        <v>9</v>
+      </c>
+      <c r="M64" s="3">
+        <v>35.115780000000001</v>
+      </c>
+      <c r="N64" s="3">
+        <v>-119.6348</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B65" s="1">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H65" s="4">
+        <v>10</v>
+      </c>
+      <c r="I65" s="3">
+        <v>35.11515</v>
+      </c>
+      <c r="J65" s="3">
+        <v>-119.63378</v>
+      </c>
+      <c r="K65" s="1">
+        <v>77</v>
+      </c>
+      <c r="L65" s="1">
+        <v>14</v>
+      </c>
+      <c r="M65" s="3">
+        <v>35.115160000000003</v>
+      </c>
+      <c r="N65" s="3">
+        <v>-119.63378</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B66" s="1">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="2">
+        <v>4.55</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H66" s="4">
+        <v>10</v>
+      </c>
+      <c r="I66" s="3">
+        <v>35.116039999999998</v>
+      </c>
+      <c r="J66" s="3">
+        <v>-119.6199</v>
+      </c>
+      <c r="K66" s="1">
+        <v>166</v>
+      </c>
+      <c r="L66" s="1">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
+        <v>35.116050000000001</v>
+      </c>
+      <c r="N66" s="3">
+        <v>-119.61987000000001</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="F67" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H67" s="4">
+        <v>9</v>
+      </c>
+      <c r="I67" s="3">
+        <v>35.115769999999998</v>
+      </c>
+      <c r="J67" s="3">
+        <v>-119.62018999999999</v>
+      </c>
+      <c r="K67" s="1">
+        <v>54</v>
+      </c>
+      <c r="L67" s="1">
+        <v>28</v>
+      </c>
+      <c r="M67" s="3">
+        <v>35.1158</v>
+      </c>
+      <c r="N67" s="3">
+        <v>-119.6202</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B68" s="1">
+        <v>67</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="H68" s="1">
+        <v>10</v>
+      </c>
+      <c r="I68" s="3">
+        <v>35.115740000000002</v>
+      </c>
+      <c r="J68" s="3">
+        <v>-119.62035</v>
+      </c>
+      <c r="K68" s="1">
+        <v>5</v>
+      </c>
+      <c r="L68" s="1">
+        <v>12</v>
+      </c>
+      <c r="M68" s="3">
+        <v>35.115729999999999</v>
+      </c>
+      <c r="N68" s="3">
+        <v>-119.62034</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B69" s="1">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H69" s="4">
+        <v>9</v>
+      </c>
+      <c r="I69" s="3">
+        <v>35.11571</v>
+      </c>
+      <c r="J69" s="3">
+        <v>-119.62045999999999</v>
+      </c>
+      <c r="K69" s="1">
+        <v>679</v>
+      </c>
+      <c r="L69" s="1">
+        <v>6</v>
+      </c>
+      <c r="M69" s="3">
+        <v>35.115720000000003</v>
+      </c>
+      <c r="N69" s="3">
+        <v>-119.62045999999999</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B70" s="1">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="2">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F70" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H70" s="4">
+        <v>10</v>
+      </c>
+      <c r="I70" s="3">
+        <v>35.115540000000003</v>
+      </c>
+      <c r="J70" s="3">
+        <v>-119.62025</v>
+      </c>
+      <c r="K70" s="1">
+        <v>82</v>
+      </c>
+      <c r="L70" s="1">
+        <v>46</v>
+      </c>
+      <c r="M70" s="3">
+        <v>35.115560000000002</v>
+      </c>
+      <c r="N70" s="3">
+        <v>-119.62027</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B71" s="1">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F71" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H71" s="4">
+        <v>9</v>
+      </c>
+      <c r="I71" s="3">
+        <v>35.115169999999999</v>
+      </c>
+      <c r="J71" s="3">
+        <v>-119.62409</v>
+      </c>
+      <c r="K71" s="1">
+        <v>80</v>
+      </c>
+      <c r="L71" s="1">
+        <v>5</v>
+      </c>
+      <c r="M71" s="3">
+        <v>35.115189999999998</v>
+      </c>
+      <c r="N71" s="3">
+        <v>-119.62411</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B72" s="1">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H72" s="4">
+        <v>7</v>
+      </c>
+      <c r="I72" s="3">
+        <v>35.115360000000003</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-119.62414</v>
+      </c>
+      <c r="K72" s="1">
+        <v>51</v>
+      </c>
+      <c r="L72" s="1">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
+        <v>35.115380000000002</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-119.62412999999999</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B73" s="1">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H73" s="4">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3">
+        <v>35.115139999999997</v>
+      </c>
+      <c r="J73" s="3">
+        <v>-119.62439999999999</v>
+      </c>
+      <c r="K73" s="1">
+        <v>196</v>
+      </c>
+      <c r="L73" s="1">
+        <v>22</v>
+      </c>
+      <c r="M73" s="3">
+        <v>35.11515</v>
+      </c>
+      <c r="N73" s="3">
+        <v>-119.62437</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B74" s="1">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="H74" s="4">
+        <v>9</v>
+      </c>
+      <c r="I74" s="3">
+        <v>35.114989999999999</v>
+      </c>
+      <c r="J74" s="3">
+        <v>-119.62447</v>
+      </c>
+      <c r="K74" s="1">
+        <v>87</v>
+      </c>
+      <c r="L74" s="1">
+        <v>3</v>
+      </c>
+      <c r="M74" s="3">
+        <v>35.115009999999998</v>
+      </c>
+      <c r="N74" s="3">
+        <v>-119.62448000000001</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B75" s="1">
+        <v>74</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H75" s="4">
+        <v>7</v>
+      </c>
+      <c r="I75" s="3">
+        <v>35.115250000000003</v>
+      </c>
+      <c r="J75" s="3">
+        <v>-119.62492</v>
+      </c>
+      <c r="K75" s="1">
+        <v>114</v>
+      </c>
+      <c r="L75" s="1">
+        <v>21</v>
+      </c>
+      <c r="M75" s="3">
+        <v>35.115270000000002</v>
+      </c>
+      <c r="N75" s="3">
+        <v>-119.6249</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B76" s="1">
+        <v>75</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F76" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
+        <v>10</v>
+      </c>
+      <c r="I76" s="3">
+        <v>35.115099999999998</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-119.62494</v>
+      </c>
+      <c r="K76" s="1">
+        <v>81</v>
+      </c>
+      <c r="L76" s="1">
+        <v>20</v>
+      </c>
+      <c r="M76" s="3">
+        <v>35.115090000000002</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-119.62493000000001</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B77" s="1">
+        <v>76</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="H77" s="4">
+        <v>10</v>
+      </c>
+      <c r="I77" s="3">
+        <v>35.115029999999997</v>
+      </c>
+      <c r="J77" s="3">
+        <v>-119.62524000000001</v>
+      </c>
+      <c r="K77" s="1">
+        <v>157</v>
+      </c>
+      <c r="L77" s="1">
+        <v>19</v>
+      </c>
+      <c r="M77" s="3">
+        <v>35.11504</v>
+      </c>
+      <c r="N77" s="3">
+        <v>-119.62521</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B78" s="1">
+        <v>77</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H78" s="4">
+        <v>8</v>
+      </c>
+      <c r="I78" s="3">
+        <v>35.114930000000001</v>
+      </c>
+      <c r="J78" s="3">
+        <v>-119.62486</v>
+      </c>
+      <c r="K78" s="1">
+        <v>107</v>
+      </c>
+      <c r="L78" s="1">
+        <v>2</v>
+      </c>
+      <c r="M78" s="3">
+        <v>35.114939999999997</v>
+      </c>
+      <c r="N78" s="3">
+        <v>-119.62486</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B79" s="1">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+      <c r="I79" s="3">
+        <v>35.116799999999998</v>
+      </c>
+      <c r="J79" s="3">
+        <v>-119.62609</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>8</v>
+      </c>
+      <c r="M79" s="3">
+        <v>35.116810000000001</v>
+      </c>
+      <c r="N79" s="3">
+        <v>-119.62609999999999</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B80" s="1">
+        <v>79</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="4">
+        <v>1</v>
+      </c>
+      <c r="I80" s="3">
+        <v>35.116880000000002</v>
+      </c>
+      <c r="J80" s="3">
+        <v>-119.62611</v>
+      </c>
+      <c r="K80" s="1">
+        <v>3</v>
+      </c>
+      <c r="L80" s="1">
+        <v>11</v>
+      </c>
+      <c r="M80" s="3">
+        <v>35.116880000000002</v>
+      </c>
+      <c r="N80" s="3">
+        <v>-119.62611</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B81" s="1">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="F81" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H81" s="4">
+        <v>10</v>
+      </c>
+      <c r="I81" s="3">
+        <v>35.117240000000002</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-119.62609999999999</v>
+      </c>
+      <c r="K81" s="1">
+        <v>117</v>
+      </c>
+      <c r="L81" s="1">
+        <v>46</v>
+      </c>
+      <c r="M81" s="3">
+        <v>35.117249999999999</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-119.62609</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B82" s="1">
+        <v>81</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F82" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H82" s="4">
+        <v>10</v>
+      </c>
+      <c r="I82" s="3">
+        <v>35.117870000000003</v>
+      </c>
+      <c r="J82" s="3">
+        <v>-119.62551000000001</v>
+      </c>
+      <c r="K82" s="1">
+        <v>126</v>
+      </c>
+      <c r="L82" s="1">
+        <v>7</v>
+      </c>
+      <c r="M82" s="3">
+        <v>35.117890000000003</v>
+      </c>
+      <c r="N82" s="3">
+        <v>-119.6255</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B83" s="1">
+        <v>82</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F83" s="2">
+        <v>3</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H83" s="4">
+        <v>10</v>
+      </c>
+      <c r="I83" s="3">
+        <v>35.118110000000001</v>
+      </c>
+      <c r="J83" s="3">
+        <v>-119.62542999999999</v>
+      </c>
+      <c r="K83" s="1">
+        <v>47</v>
+      </c>
+      <c r="L83" s="1">
+        <v>44</v>
+      </c>
+      <c r="M83" s="3">
+        <v>35.118130000000001</v>
+      </c>
+      <c r="N83" s="3">
+        <v>-119.62542999999999</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B84" s="1">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="F84" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H84" s="4">
+        <v>8</v>
+      </c>
+      <c r="I84" s="3">
+        <v>35.119959999999999</v>
+      </c>
+      <c r="J84" s="3">
+        <v>-119.6266</v>
+      </c>
+      <c r="K84" s="1">
+        <v>60</v>
+      </c>
+      <c r="L84" s="1">
+        <v>16</v>
+      </c>
+      <c r="M84" s="3">
+        <v>35.119970000000002</v>
+      </c>
+      <c r="N84" s="3">
+        <v>-119.6266</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B85" s="1">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H85" s="4">
+        <v>7</v>
+      </c>
+      <c r="I85" s="3">
+        <v>35.119549999999997</v>
+      </c>
+      <c r="J85" s="3">
+        <v>-119.62186</v>
+      </c>
+      <c r="K85" s="1">
+        <v>5</v>
+      </c>
+      <c r="L85" s="1">
+        <v>3</v>
+      </c>
+      <c r="M85" s="3">
+        <v>35.119570000000003</v>
+      </c>
+      <c r="N85" s="3">
+        <v>-119.62186</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B86" s="1">
+        <v>85</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="F86" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H86" s="4">
+        <v>10</v>
+      </c>
+      <c r="I86" s="3">
+        <v>35.119660000000003</v>
+      </c>
+      <c r="J86" s="3">
+        <v>-119.6217</v>
+      </c>
+      <c r="K86" s="1">
+        <v>11</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>35.119680000000002</v>
+      </c>
+      <c r="N86" s="3">
+        <v>-119.6217</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B87" s="1">
+        <v>86</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="F87" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H87" s="4">
+        <v>6</v>
+      </c>
+      <c r="I87" s="3">
+        <v>35.120280000000001</v>
+      </c>
+      <c r="J87" s="3">
+        <v>-119.62264</v>
+      </c>
+      <c r="K87" s="1">
+        <v>71</v>
+      </c>
+      <c r="L87" s="1">
+        <v>14</v>
+      </c>
+      <c r="M87" s="3">
+        <v>35.120289999999997</v>
+      </c>
+      <c r="N87" s="3">
+        <v>-119.62264</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B88" s="1">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="H88" s="4">
+        <v>10</v>
+      </c>
+      <c r="I88" s="3">
+        <v>35.12003</v>
+      </c>
+      <c r="J88" s="3">
+        <v>-119.62447</v>
+      </c>
+      <c r="K88" s="1">
+        <v>27</v>
+      </c>
+      <c r="L88" s="1">
+        <v>2</v>
+      </c>
+      <c r="M88" s="3">
+        <v>35.120049999999999</v>
+      </c>
+      <c r="N88" s="3">
+        <v>-119.62447</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B89" s="1">
+        <v>88</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F89" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H89" s="4">
+        <v>9</v>
+      </c>
+      <c r="I89" s="3">
+        <v>35.120179999999998</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-119.62452999999999</v>
+      </c>
+      <c r="K89" s="1">
+        <v>69</v>
+      </c>
+      <c r="L89" s="1">
+        <v>19</v>
+      </c>
+      <c r="M89" s="3">
+        <v>35.120190000000001</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-119.62452999999999</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B90" s="1">
+        <v>89</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="F90" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H90" s="4">
+        <v>10</v>
+      </c>
+      <c r="I90" s="3">
+        <v>35.120260000000002</v>
+      </c>
+      <c r="J90" s="3">
+        <v>-119.62475999999999</v>
+      </c>
+      <c r="K90" s="1">
+        <v>118</v>
+      </c>
+      <c r="L90" s="1">
+        <v>16</v>
+      </c>
+      <c r="M90" s="3">
+        <v>35.120269999999998</v>
+      </c>
+      <c r="N90" s="3">
+        <v>-119.62475999999999</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B91" s="1">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H91" s="4">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
+        <v>35.120910000000002</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-119.62511000000001</v>
+      </c>
+      <c r="K91" s="1">
+        <v>22</v>
+      </c>
+      <c r="L91" s="1">
+        <v>6</v>
+      </c>
+      <c r="M91" s="3">
+        <v>35.120899999999999</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-119.62512</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B92" s="1">
+        <v>91</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G92" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="H92" s="4">
+        <v>9</v>
+      </c>
+      <c r="I92" s="3">
+        <v>35.120570000000001</v>
+      </c>
+      <c r="J92" s="3">
+        <v>-119.62539</v>
+      </c>
+      <c r="K92" s="1">
+        <v>134</v>
+      </c>
+      <c r="L92" s="1">
+        <v>4</v>
+      </c>
+      <c r="M92" s="3">
+        <v>35.120579999999997</v>
+      </c>
+      <c r="N92" s="3">
+        <v>-119.62536</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B93" s="1">
+        <v>92</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="F93" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H93" s="4">
+        <v>7</v>
+      </c>
+      <c r="I93" s="3">
+        <v>35.120260000000002</v>
+      </c>
+      <c r="J93" s="3">
+        <v>-119.62632000000001</v>
+      </c>
+      <c r="K93" s="1">
+        <v>51</v>
+      </c>
+      <c r="L93" s="1">
+        <v>12</v>
+      </c>
+      <c r="M93" s="3">
+        <v>35.120269999999998</v>
+      </c>
+      <c r="N93" s="3">
+        <v>-119.62631</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B94" s="1">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F94" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G94" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H94" s="4">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>35.119880000000002</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-119.62724</v>
+      </c>
+      <c r="K94" s="1">
+        <v>72</v>
+      </c>
+      <c r="L94" s="1">
+        <v>19</v>
+      </c>
+      <c r="M94" s="3">
+        <v>35.119900000000001</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-119.62729</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="4">
+        <v>1</v>
+      </c>
+      <c r="I95" s="3">
+        <v>35.119669999999999</v>
+      </c>
+      <c r="J95" s="3">
+        <v>-119.62746</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>1</v>
+      </c>
+      <c r="M95" s="3">
+        <v>35.119680000000002</v>
+      </c>
+      <c r="N95" s="3">
+        <v>-119.62748999999999</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="H96" s="4">
+        <v>2</v>
+      </c>
+      <c r="I96" s="3">
+        <v>35.119660000000003</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-119.62748999999999</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>3</v>
+      </c>
+      <c r="M96" s="3">
+        <v>35.119660000000003</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-119.6275</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B97" s="1">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="2">
+        <v>4</v>
+      </c>
+      <c r="F97" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="G97" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="H97" s="4">
+        <v>7</v>
+      </c>
+      <c r="I97" s="3">
+        <v>35.119590000000002</v>
+      </c>
+      <c r="J97" s="3">
+        <v>-119.62759</v>
+      </c>
+      <c r="K97" s="1">
+        <v>63</v>
+      </c>
+      <c r="L97" s="1">
+        <v>13</v>
+      </c>
+      <c r="M97" s="3">
+        <v>35.119610000000002</v>
+      </c>
+      <c r="N97" s="3">
+        <v>-119.6276</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B98" s="1">
+        <v>97</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="2">
+        <v>4</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G98" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H98" s="4">
+        <v>9</v>
+      </c>
+      <c r="I98" s="3">
+        <v>35.11947</v>
+      </c>
+      <c r="J98" s="3">
+        <v>-119.62779999999999</v>
+      </c>
+      <c r="K98" s="1">
+        <v>123</v>
+      </c>
+      <c r="L98" s="1">
+        <v>5</v>
+      </c>
+      <c r="M98" s="3">
+        <v>35.119500000000002</v>
+      </c>
+      <c r="N98" s="3">
+        <v>-119.62778</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G99" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H99" s="4">
+        <v>10</v>
+      </c>
+      <c r="I99" s="3">
+        <v>35.119500000000002</v>
+      </c>
+      <c r="J99" s="3">
+        <v>-119.62812</v>
+      </c>
+      <c r="K99" s="1">
+        <v>133</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="M99" s="3">
+        <v>35.119529999999997</v>
+      </c>
+      <c r="N99" s="3">
+        <v>-119.62812</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B100" s="1">
+        <v>99</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G100" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H100" s="4">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
+        <v>35.119419999999998</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-119.62820000000001</v>
+      </c>
+      <c r="K100" s="1">
+        <v>9</v>
+      </c>
+      <c r="L100" s="1">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
+        <v>35.119419999999998</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-119.62818</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B101" s="1">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="F101" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="G101" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H101" s="4">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>35.11974</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-119.6285</v>
+      </c>
+      <c r="K101" s="1">
+        <v>179</v>
+      </c>
+      <c r="L101" s="1">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
+        <v>35.119750000000003</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-119.62849</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B102" s="1">
+        <v>101</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F102" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="G102" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H102" s="4">
+        <v>7</v>
+      </c>
+      <c r="I102" s="3">
+        <v>35.119889999999998</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-119.62845</v>
+      </c>
+      <c r="K102" s="1">
+        <v>137</v>
+      </c>
+      <c r="L102" s="1">
+        <v>2</v>
+      </c>
+      <c r="M102" s="3">
+        <v>35.119900000000001</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-119.6284</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B103" s="1">
+        <v>102</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="F103" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="G103" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H103" s="4">
+        <v>8</v>
+      </c>
+      <c r="I103" s="3">
+        <v>35.119860000000003</v>
+      </c>
+      <c r="J103" s="3">
+        <v>-119.62851999999999</v>
+      </c>
+      <c r="K103" s="1">
+        <v>118</v>
+      </c>
+      <c r="L103" s="1">
+        <v>13</v>
+      </c>
+      <c r="M103" s="3">
+        <v>35.11985</v>
+      </c>
+      <c r="N103" s="3">
+        <v>-119.62849</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B104" s="1">
+        <v>103</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="F104" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G104" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H104" s="4">
+        <v>10</v>
+      </c>
+      <c r="I104" s="3">
+        <v>35.119390000000003</v>
+      </c>
+      <c r="J104" s="3">
+        <v>-119.62836</v>
+      </c>
+      <c r="K104" s="1">
+        <v>22</v>
+      </c>
+      <c r="L104" s="1">
+        <v>4</v>
+      </c>
+      <c r="M104" s="3">
+        <v>35.119410000000002</v>
+      </c>
+      <c r="N104" s="3">
+        <v>-119.62836</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B105" s="1">
+        <v>104</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="F105" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G105" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="H105" s="4">
+        <v>7</v>
+      </c>
+      <c r="I105" s="3">
+        <v>35.119030000000002</v>
+      </c>
+      <c r="J105" s="3">
+        <v>-119.62794</v>
+      </c>
+      <c r="K105" s="1">
+        <v>128</v>
+      </c>
+      <c r="L105" s="1">
+        <v>31</v>
+      </c>
+      <c r="M105" s="3">
+        <v>35.119050000000001</v>
+      </c>
+      <c r="N105" s="3">
+        <v>-119.62792</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B106" s="1">
+        <v>105</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="F106" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G106" s="2">
+        <v>2</v>
+      </c>
+      <c r="H106" s="4">
+        <v>10</v>
+      </c>
+      <c r="I106" s="3">
+        <v>35.119900000000001</v>
+      </c>
+      <c r="J106" s="3">
+        <v>-119.62965</v>
+      </c>
+      <c r="K106" s="1">
+        <v>158</v>
+      </c>
+      <c r="L106" s="1">
+        <v>29</v>
+      </c>
+      <c r="M106" s="3">
+        <v>35.11992</v>
+      </c>
+      <c r="N106" s="3">
+        <v>-119.62967</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B107" s="1">
+        <v>106</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="F107" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="G107" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H107" s="4">
+        <v>10</v>
+      </c>
+      <c r="I107" s="3">
+        <v>35.120330000000003</v>
+      </c>
+      <c r="J107" s="3">
+        <v>-119.6294</v>
+      </c>
+      <c r="K107" s="1">
+        <v>43</v>
+      </c>
+      <c r="L107" s="1">
+        <v>20</v>
+      </c>
+      <c r="M107" s="3">
+        <v>35.120339999999999</v>
+      </c>
+      <c r="N107" s="3">
+        <v>-119.62939</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B108" s="1">
+        <v>107</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G108" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H108" s="4">
+        <v>8</v>
+      </c>
+      <c r="I108" s="3">
+        <v>35.120690000000003</v>
+      </c>
+      <c r="J108" s="3">
+        <v>-119.62949</v>
+      </c>
+      <c r="K108" s="1">
+        <v>253</v>
+      </c>
+      <c r="L108" s="1">
+        <v>16</v>
+      </c>
+      <c r="M108" s="3">
+        <v>35.120690000000003</v>
+      </c>
+      <c r="N108" s="3">
+        <v>-119.62947</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B109" s="1">
+        <v>108</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="G109" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H109" s="4">
+        <v>10</v>
+      </c>
+      <c r="I109" s="3">
+        <v>35.120849999999997</v>
+      </c>
+      <c r="J109" s="3">
+        <v>-119.62940999999999</v>
+      </c>
+      <c r="K109" s="1">
+        <v>23</v>
+      </c>
+      <c r="L109" s="1">
+        <v>10</v>
+      </c>
+      <c r="M109" s="3">
+        <v>35.12086</v>
+      </c>
+      <c r="N109" s="3">
+        <v>-119.6294</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B110" s="1">
+        <v>109</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="F110" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H110" s="4">
+        <v>10</v>
+      </c>
+      <c r="I110" s="3">
+        <v>35.12124</v>
+      </c>
+      <c r="J110" s="3">
+        <v>-119.62916</v>
+      </c>
+      <c r="K110" s="1">
+        <v>124</v>
+      </c>
+      <c r="L110" s="1">
+        <v>11</v>
+      </c>
+      <c r="M110" s="3">
+        <v>35.121259999999999</v>
+      </c>
+      <c r="N110" s="3">
+        <v>-119.62914000000001</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B111" s="1">
+        <v>110</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F111" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="G111" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="H111" s="4">
+        <v>10</v>
+      </c>
+      <c r="I111" s="3">
+        <v>35.12124</v>
+      </c>
+      <c r="J111" s="3">
+        <v>-119.62903</v>
+      </c>
+      <c r="K111" s="1">
+        <v>81</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0</v>
+      </c>
+      <c r="M111" s="3">
+        <v>35.121259999999999</v>
+      </c>
+      <c r="N111" s="3">
+        <v>-119.629</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B112" s="1">
+        <v>111</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G112" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H112" s="4">
+        <v>9</v>
+      </c>
+      <c r="I112" s="3">
+        <v>35.121049999999997</v>
+      </c>
+      <c r="J112" s="3">
+        <v>-119.6289</v>
+      </c>
+      <c r="K112" s="1">
+        <v>84</v>
+      </c>
+      <c r="L112" s="1">
+        <v>1</v>
+      </c>
+      <c r="M112" s="3">
+        <v>35.12106</v>
+      </c>
+      <c r="N112" s="3">
+        <v>-119.6289</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B113" s="1">
+        <v>112</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="2">
+        <v>5</v>
+      </c>
+      <c r="F113" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="H113" s="4">
+        <v>10</v>
+      </c>
+      <c r="I113" s="3">
+        <v>35.120809999999999</v>
+      </c>
+      <c r="J113" s="3">
+        <v>-119.62851999999999</v>
+      </c>
+      <c r="K113" s="1">
+        <v>96</v>
+      </c>
+      <c r="L113" s="1">
+        <v>22</v>
+      </c>
+      <c r="M113" s="3">
+        <v>35.120829999999998</v>
+      </c>
+      <c r="N113" s="3">
+        <v>-119.62851999999999</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B114" s="1">
+        <v>113</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H114" s="4">
+        <v>4</v>
+      </c>
+      <c r="I114" s="3">
+        <v>35.120399999999997</v>
+      </c>
+      <c r="J114" s="3">
+        <v>-119.62864</v>
+      </c>
+      <c r="K114" s="1">
+        <v>5</v>
+      </c>
+      <c r="L114" s="1">
+        <v>3</v>
+      </c>
+      <c r="M114" s="3">
+        <v>35.120420000000003</v>
+      </c>
+      <c r="N114" s="3">
+        <v>-119.62864</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B115" s="1">
+        <v>114</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="F115" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="H115" s="4">
+        <v>9</v>
+      </c>
+      <c r="I115" s="3">
+        <v>35.119880000000002</v>
+      </c>
+      <c r="J115" s="3">
+        <v>-119.62915</v>
+      </c>
+      <c r="K115" s="1">
+        <v>115</v>
+      </c>
+      <c r="L115" s="1">
+        <v>2</v>
+      </c>
+      <c r="M115" s="3">
+        <v>35.119880000000002</v>
+      </c>
+      <c r="N115" s="3">
+        <v>-119.62914000000001</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B116" s="1">
+        <v>115</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F116" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="H116" s="4">
+        <v>8</v>
+      </c>
+      <c r="I116" s="3">
+        <v>35.119720000000001</v>
+      </c>
+      <c r="J116" s="3">
+        <v>-119.62923000000001</v>
+      </c>
+      <c r="K116" s="1">
+        <v>14</v>
+      </c>
+      <c r="L116" s="1">
+        <v>10</v>
+      </c>
+      <c r="M116" s="3">
+        <v>35.119729999999997</v>
+      </c>
+      <c r="N116" s="3">
+        <v>-119.62922</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B117" s="1">
+        <v>116</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="F117" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G117" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H117" s="4">
+        <v>9</v>
+      </c>
+      <c r="I117" s="3">
+        <v>35.119480000000003</v>
+      </c>
+      <c r="J117" s="3">
+        <v>-119.62889</v>
+      </c>
+      <c r="K117" s="1">
+        <v>1</v>
+      </c>
+      <c r="L117" s="1">
+        <v>5</v>
+      </c>
+      <c r="M117" s="3">
+        <v>35.119509999999998</v>
+      </c>
+      <c r="N117" s="3">
+        <v>-119.62888</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B118" s="1">
+        <v>117</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F118" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G118" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H118" s="4">
+        <v>8</v>
+      </c>
+      <c r="I118" s="3">
+        <v>35.119250000000001</v>
+      </c>
+      <c r="J118" s="3">
+        <v>-119.62869999999999</v>
+      </c>
+      <c r="K118" s="1">
+        <v>37</v>
+      </c>
+      <c r="L118" s="1">
+        <v>3</v>
+      </c>
+      <c r="M118" s="3">
+        <v>35.11927</v>
+      </c>
+      <c r="N118" s="3">
+        <v>-119.62869000000001</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B119" s="1">
+        <v>118</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G119" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="H119" s="4">
+        <v>5</v>
+      </c>
+      <c r="I119" s="3">
+        <v>35.118899999999996</v>
+      </c>
+      <c r="J119" s="3">
+        <v>-119.62882</v>
+      </c>
+      <c r="K119" s="1">
+        <v>146</v>
+      </c>
+      <c r="L119" s="1">
+        <v>7</v>
+      </c>
+      <c r="M119" s="3">
+        <v>35.118920000000003</v>
+      </c>
+      <c r="N119" s="3">
+        <v>-119.62881</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B120" s="1">
+        <v>119</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F120" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G120" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H120" s="4">
+        <v>7</v>
+      </c>
+      <c r="I120" s="3">
+        <v>35.118600000000001</v>
+      </c>
+      <c r="J120" s="3">
+        <v>-119.62873999999999</v>
+      </c>
+      <c r="K120" s="1">
+        <v>154</v>
+      </c>
+      <c r="L120" s="1">
+        <v>0</v>
+      </c>
+      <c r="M120" s="3">
+        <v>35.118609999999997</v>
+      </c>
+      <c r="N120" s="3">
+        <v>-119.62873999999999</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B121" s="1">
+        <v>120</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="F121" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G121" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="H121" s="4">
+        <v>10</v>
+      </c>
+      <c r="I121" s="3">
+        <v>35.118450000000003</v>
+      </c>
+      <c r="J121" s="3">
+        <v>-119.63187000000001</v>
+      </c>
+      <c r="K121" s="1">
+        <v>100</v>
+      </c>
+      <c r="L121" s="1">
+        <v>15</v>
+      </c>
+      <c r="M121" s="3">
+        <v>35.118459999999999</v>
+      </c>
+      <c r="N121" s="3">
+        <v>-119.6318</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B122" s="1">
+        <v>121</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F122" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G122" s="2">
+        <v>1</v>
+      </c>
+      <c r="H122" s="4">
+        <v>10</v>
+      </c>
+      <c r="I122" s="3">
+        <v>35.118609999999997</v>
+      </c>
+      <c r="J122" s="3">
+        <v>-119.63184</v>
+      </c>
+      <c r="K122" s="1">
+        <v>36</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0</v>
+      </c>
+      <c r="M122" s="3">
+        <v>35.11862</v>
+      </c>
+      <c r="N122" s="3">
+        <v>-119.63182999999999</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B123" s="1">
+        <v>122</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H123" s="4">
+        <v>9</v>
+      </c>
+      <c r="I123" s="3">
+        <v>35.118670000000002</v>
+      </c>
+      <c r="J123" s="3">
+        <v>-119.63164999999999</v>
+      </c>
+      <c r="K123" s="1">
+        <v>14</v>
+      </c>
+      <c r="L123" s="1">
+        <v>3</v>
+      </c>
+      <c r="M123" s="3">
+        <v>35.118670000000002</v>
+      </c>
+      <c r="N123" s="3">
+        <v>-119.63164</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B124" s="1">
+        <v>123</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G124" s="2">
+        <v>1</v>
+      </c>
+      <c r="H124" s="4">
+        <v>10</v>
+      </c>
+      <c r="I124" s="3">
+        <v>35.118650000000002</v>
+      </c>
+      <c r="J124" s="3">
+        <v>-119.63139</v>
+      </c>
+      <c r="K124" s="1">
+        <v>9</v>
+      </c>
+      <c r="L124" s="1">
+        <v>0</v>
+      </c>
+      <c r="M124" s="3">
+        <v>35.118659999999998</v>
+      </c>
+      <c r="N124" s="3">
+        <v>-119.63139</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B125" s="1">
+        <v>124</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="H125" s="4">
+        <v>7</v>
+      </c>
+      <c r="I125" s="3">
+        <v>35.118920000000003</v>
+      </c>
+      <c r="J125" s="3">
+        <v>-119.6313</v>
+      </c>
+      <c r="K125" s="1">
+        <v>23</v>
+      </c>
+      <c r="L125" s="1">
+        <v>21</v>
+      </c>
+      <c r="M125" s="3">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="N125" s="3">
+        <v>-119.63129000000001</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B126" s="1">
+        <v>125</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="F126" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G126" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H126" s="4">
+        <v>8</v>
+      </c>
+      <c r="I126" s="3">
+        <v>35.118940000000002</v>
+      </c>
+      <c r="J126" s="3">
+        <v>-119.63127</v>
+      </c>
+      <c r="K126" s="1">
+        <v>13</v>
+      </c>
+      <c r="L126" s="1">
+        <v>19</v>
+      </c>
+      <c r="M126" s="3">
+        <v>35.118960000000001</v>
+      </c>
+      <c r="N126" s="3">
+        <v>-119.63126</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B127" s="1">
+        <v>126</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0</v>
+      </c>
+      <c r="H127" s="4">
+        <v>1</v>
+      </c>
+      <c r="I127" s="3">
+        <v>35.119480000000003</v>
+      </c>
+      <c r="J127" s="3">
+        <v>-119.63074</v>
+      </c>
+      <c r="K127" s="1">
+        <v>8</v>
+      </c>
+      <c r="L127" s="1">
+        <v>2</v>
+      </c>
+      <c r="M127" s="3">
+        <v>35.11947</v>
+      </c>
+      <c r="N127" s="3">
+        <v>-119.63078</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B128" s="1">
+        <v>127</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F128" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="G128" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H128" s="4">
+        <v>7</v>
+      </c>
+      <c r="I128" s="3">
+        <v>35.11947</v>
+      </c>
+      <c r="J128" s="3">
+        <v>-119.63066000000001</v>
+      </c>
+      <c r="K128" s="1">
+        <v>140</v>
+      </c>
+      <c r="L128" s="1">
+        <v>1</v>
+      </c>
+      <c r="M128" s="3">
+        <v>35.119489999999999</v>
+      </c>
+      <c r="N128" s="3">
+        <v>-119.63065</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B129" s="1">
+        <v>128</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
+      <c r="H129" s="4">
+        <v>1</v>
+      </c>
+      <c r="I129" s="3">
+        <v>35.119450000000001</v>
+      </c>
+      <c r="J129" s="3">
+        <v>-119.63054</v>
+      </c>
+      <c r="K129" s="1">
+        <v>3</v>
+      </c>
+      <c r="L129" s="1">
+        <v>4</v>
+      </c>
+      <c r="M129" s="3">
+        <v>35.119450000000001</v>
+      </c>
+      <c r="N129" s="3">
+        <v>-119.63055</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B130" s="1">
+        <v>129</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="2">
+        <v>6.05</v>
+      </c>
+      <c r="F130" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G130" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H130" s="4">
+        <v>7</v>
+      </c>
+      <c r="I130" s="3">
+        <v>35.119430000000001</v>
+      </c>
+      <c r="J130" s="3">
+        <v>-119.63026000000001</v>
+      </c>
+      <c r="K130" s="1">
+        <v>49</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0</v>
+      </c>
+      <c r="M130" s="3">
+        <v>35.119439999999997</v>
+      </c>
+      <c r="N130" s="3">
+        <v>-119.63027</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B131" s="1">
+        <v>130</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="G131" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="H131" s="4">
+        <v>9</v>
+      </c>
+      <c r="I131" s="3">
+        <v>35.119680000000002</v>
+      </c>
+      <c r="J131" s="3">
+        <v>-119.62998</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0</v>
+      </c>
+      <c r="L131" s="1">
+        <v>8</v>
+      </c>
+      <c r="M131" s="3">
+        <v>35.119689999999999</v>
+      </c>
+      <c r="N131" s="3">
+        <v>-119.62997</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B132" s="1">
+        <v>131</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F132" s="1">
+        <v>4</v>
+      </c>
+      <c r="G132" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H132" s="4">
+        <v>7</v>
+      </c>
+      <c r="I132" s="3">
+        <v>35.119759999999999</v>
+      </c>
+      <c r="J132" s="3">
+        <v>-119.62985999999999</v>
+      </c>
+      <c r="K132" s="1">
+        <v>17</v>
+      </c>
+      <c r="L132" s="1">
+        <v>12</v>
+      </c>
+      <c r="M132" s="3">
+        <v>35.119770000000003</v>
+      </c>
+      <c r="N132" s="3">
+        <v>-119.62985999999999</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B133" s="1">
+        <v>132</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F133" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H133" s="4">
+        <v>4</v>
+      </c>
+      <c r="I133" s="3">
+        <v>35.120049999999999</v>
+      </c>
+      <c r="J133" s="3">
+        <v>-119.62994</v>
+      </c>
+      <c r="K133" s="1">
+        <v>28</v>
+      </c>
+      <c r="L133" s="1">
+        <v>8</v>
+      </c>
+      <c r="M133" s="3">
+        <v>35.120060000000002</v>
+      </c>
+      <c r="N133" s="3">
+        <v>-119.62994999999999</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B134" s="1">
+        <v>133</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="F134" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="H134" s="4">
+        <v>7</v>
+      </c>
+      <c r="I134" s="3">
+        <v>35.120310000000003</v>
+      </c>
+      <c r="J134" s="3">
+        <v>-119.62979</v>
+      </c>
+      <c r="K134" s="1">
+        <v>33</v>
+      </c>
+      <c r="L134" s="1">
+        <v>2</v>
+      </c>
+      <c r="M134" s="3">
+        <v>35.12032</v>
+      </c>
+      <c r="N134" s="3">
+        <v>-119.6298</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B135" s="1">
+        <v>134</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="F135" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H135" s="4">
+        <v>7</v>
+      </c>
+      <c r="I135" s="3">
+        <v>35.11356</v>
+      </c>
+      <c r="J135" s="3">
+        <v>-119.63269</v>
+      </c>
+      <c r="K135" s="1">
+        <v>108</v>
+      </c>
+      <c r="L135" s="1">
+        <v>15</v>
+      </c>
+      <c r="M135" s="3">
+        <v>35.11356</v>
+      </c>
+      <c r="N135" s="3">
+        <v>-119.63267999999999</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B136" s="1">
+        <v>135</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="F136" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="G136" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H136" s="4">
+        <v>8</v>
+      </c>
+      <c r="I136" s="3">
+        <v>35.11242</v>
+      </c>
+      <c r="J136" s="3">
+        <v>-119.63364</v>
+      </c>
+      <c r="K136" s="1">
+        <v>13</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0</v>
+      </c>
+      <c r="M136" s="3">
+        <v>35.11242</v>
+      </c>
+      <c r="N136" s="3">
+        <v>-119.63364</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B137" s="1">
+        <v>136</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H137" s="4">
+        <v>3</v>
+      </c>
+      <c r="I137" s="3">
+        <v>35.112349999999999</v>
+      </c>
+      <c r="J137" s="3">
+        <v>-119.63355</v>
+      </c>
+      <c r="K137" s="1">
+        <v>36</v>
+      </c>
+      <c r="L137" s="1">
+        <v>14</v>
+      </c>
+      <c r="M137" s="3">
+        <v>35.112369999999999</v>
+      </c>
+      <c r="N137" s="3">
+        <v>-119.63354</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B138" s="1">
+        <v>137</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="2">
+        <v>3</v>
+      </c>
+      <c r="F138" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H138" s="4">
+        <v>6</v>
+      </c>
+      <c r="I138" s="3">
+        <v>35.112229999999997</v>
+      </c>
+      <c r="J138" s="3">
+        <v>-119.63330000000001</v>
+      </c>
+      <c r="K138" s="1">
+        <v>48</v>
+      </c>
+      <c r="L138" s="1">
+        <v>5</v>
+      </c>
+      <c r="M138" s="3">
+        <v>35.112250000000003</v>
+      </c>
+      <c r="N138" s="3">
+        <v>-119.63330999999999</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B139" s="1">
+        <v>138</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G139" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H139" s="4">
+        <v>5</v>
+      </c>
+      <c r="I139" s="3">
+        <v>35.112209999999997</v>
+      </c>
+      <c r="J139" s="3">
+        <v>-119.63317000000001</v>
+      </c>
+      <c r="K139" s="1">
+        <v>9</v>
+      </c>
+      <c r="L139" s="1">
+        <v>0</v>
+      </c>
+      <c r="M139" s="3">
+        <v>35.112200000000001</v>
+      </c>
+      <c r="N139" s="3">
+        <v>-119.63317000000001</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B140" s="1">
+        <v>139</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="F140" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="G140" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H140" s="4">
+        <v>8</v>
+      </c>
+      <c r="I140" s="3">
+        <v>35.112290000000002</v>
+      </c>
+      <c r="J140" s="3">
+        <v>-119.63308000000001</v>
+      </c>
+      <c r="K140" s="1">
+        <v>72</v>
+      </c>
+      <c r="L140" s="1">
+        <v>7</v>
+      </c>
+      <c r="M140" s="3">
+        <v>35.112290000000002</v>
+      </c>
+      <c r="N140" s="3">
+        <v>-119.63309</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B141" s="1">
+        <v>140</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="2">
+        <v>3</v>
+      </c>
+      <c r="F141" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="G141" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H141" s="4">
+        <v>10</v>
+      </c>
+      <c r="I141" s="3">
+        <v>35.11307</v>
+      </c>
+      <c r="J141" s="3">
+        <v>-119.63281000000001</v>
+      </c>
+      <c r="K141" s="1">
+        <v>59</v>
+      </c>
+      <c r="L141" s="1">
+        <v>6</v>
+      </c>
+      <c r="M141" s="3">
+        <v>35.113079999999997</v>
+      </c>
+      <c r="N141" s="3">
+        <v>-119.63282</v>
+      </c>
+      <c r="O141" s="1" t="s">
         <v>6</v>
       </c>
     </row>
